--- a/data/trans_dic/P16A18-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A18-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P16A18-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A18-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -676,42 +676,42 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,42%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,41%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,72%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,42%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,41%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,72%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,77%</t>
         </is>
       </c>
     </row>
@@ -744,42 +744,42 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>8,07; 13,59</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>12,12; 19,17</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>6,34; 11,92</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>0,34; 5,01</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>8,07; 13,59</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>12,12; 19,17</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>6,34; 11,92</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>0,34; 5,01</t>
         </is>
       </c>
     </row>
@@ -816,42 +816,42 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,79%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,97%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,16%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,53%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,79%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,97%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,16%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,53%</t>
         </is>
       </c>
     </row>
@@ -884,42 +884,42 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>12,96; 18,8</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>14,13; 20,24</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>8,86; 13,95</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>4,13; 9,26</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>12,96; 18,8</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>14,13; 20,24</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>8,86; 13,95</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>4,13; 9,26</t>
         </is>
       </c>
     </row>
@@ -956,42 +956,42 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,77%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,39%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,31%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,56%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,77%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,39%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,31%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,56%</t>
         </is>
       </c>
     </row>
@@ -1024,42 +1024,42 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>4,97; 8,75</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>5,59; 9,83</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>3,58; 7,01</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>1,58; 4,02</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>4,97; 8,75</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>5,59; 9,83</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>3,58; 7,01</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>1,58; 4,02</t>
         </is>
       </c>
     </row>
@@ -1096,42 +1096,42 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,29%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,29%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,61%</t>
         </is>
       </c>
     </row>
@@ -1164,42 +1164,42 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>1,97; 5,2</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>0,86; 3,05</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>1,42; 4,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>1,03; 2,54</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>1,97; 5,2</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>0,86; 3,05</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>1,42; 4,28</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>1,03; 2,54</t>
         </is>
       </c>
     </row>
@@ -1241,37 +1241,37 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>0,25%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0,11%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="J12" s="2" t="inlineStr">
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0,25%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,11%</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>0,0; 1,25</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>0,0; 0,57</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>0,0; 1,25</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>0,0; 0,57</t>
         </is>
       </c>
     </row>
@@ -1376,42 +1376,42 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>0,53%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>0,47%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>0,18%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>0,53%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,18%</t>
         </is>
       </c>
     </row>
@@ -1444,7 +1444,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>0,16; 1,58</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1454,17 +1454,17 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>0,13; 1,27</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>0,05; 0,46</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>0,16; 1,58</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
@@ -1474,12 +1474,12 @@
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>0,13; 1,27</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>0,05; 0,46</t>
         </is>
       </c>
     </row>
@@ -1516,42 +1516,42 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,36%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,59%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,3%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,36%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,59%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,3%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,8%</t>
         </is>
       </c>
     </row>
@@ -1584,42 +1584,42 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>5,58; 7,2</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>5,81; 7,51</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>3,66; 5,03</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>1,34; 2,25</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>5,58; 7,2</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>5,81; 7,51</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>3,66; 5,03</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>1,34; 2,25</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A18-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A18-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>1,65%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>1,65%</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,34; 5,01</t>
+          <t>0,37; 4,7</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,34; 5,01</t>
+          <t>0,37; 4,7</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>6,53%</t>
+          <t>6,06%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>6,53%</t>
+          <t>6,06%</t>
         </is>
       </c>
     </row>
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,13; 9,26</t>
+          <t>3,46; 9,05</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,13; 9,26</t>
+          <t>3,46; 9,05</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>2,57%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>2,57%</t>
         </is>
       </c>
     </row>
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>1,59%</t>
         </is>
       </c>
     </row>
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,03; 2,54</t>
+          <t>1,0; 2,56</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,03; 2,54</t>
+          <t>1,0; 2,56</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,11%</t>
+          <t>0,12%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,11%</t>
+          <t>0,12%</t>
         </is>
       </c>
     </row>
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,57</t>
+          <t>0,0; 0,58</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,57</t>
+          <t>0,0; 0,58</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1376,7 +1376,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,53%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1386,17 +1386,17 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,47%</t>
+          <t>0,27%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,18%</t>
+          <t>0,22%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,53%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
@@ -1406,12 +1406,12 @@
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,47%</t>
+          <t>0,27%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,18%</t>
+          <t>0,22%</t>
         </is>
       </c>
     </row>
@@ -1444,49 +1444,49 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,58</t>
+          <t>0; 0,52</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>0; 0,56</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,27</t>
+          <t>0,0; 1,36</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,05; 0,46</t>
+          <t>0,0; 0,64</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,58</t>
+          <t>0; 0,52</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>0; 0,56</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,27</t>
+          <t>0,0; 1,36</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,05; 0,46</t>
+          <t>0,0; 0,64</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1516,42 +1516,42 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>6,36%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>6,59%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>4,3%</t>
+          <t>0,67%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1,8%</t>
+          <t>0,1%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>6,36%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>6,59%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>4,3%</t>
+          <t>0,67%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>1,8%</t>
+          <t>0,1%</t>
         </is>
       </c>
     </row>
@@ -1584,54 +1584,194 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
+          <t>0,33; 3,24</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,55</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,35</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 0,47</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>0,33; 3,24</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,55</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,35</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 0,47</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>6,36%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>6,59%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>4,3%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1,74%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>6,36%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>6,59%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>4,3%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>1,74%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
           <t>5,58; 7,2</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>5,81; 7,51</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>3,66; 5,03</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>1,34; 2,25</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>1,27; 2,21</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>5,58; 7,2</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>5,81; 7,51</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>3,66; 5,03</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>1,34; 2,25</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>1,27; 2,21</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P16A18-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A18-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -744,42 +745,42 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,07; 13,59</t>
+          <t>7,79; 13,3</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>12,12; 19,17</t>
+          <t>12,28; 19,61</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,34; 11,92</t>
+          <t>6,28; 11,59</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,37; 4,7</t>
+          <t>0,37; 5,13</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,07; 13,59</t>
+          <t>7,79; 13,3</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>12,12; 19,17</t>
+          <t>12,28; 19,61</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>6,34; 11,92</t>
+          <t>6,28; 11,59</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,37; 4,7</t>
+          <t>0,37; 5,13</t>
         </is>
       </c>
     </row>
@@ -884,42 +885,42 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>12,96; 18,8</t>
+          <t>12,96; 18,72</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>14,13; 20,24</t>
+          <t>14,29; 20,73</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,86; 13,95</t>
+          <t>8,71; 13,97</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,46; 9,05</t>
+          <t>3,3; 8,79</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>12,96; 18,8</t>
+          <t>12,96; 18,72</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>14,13; 20,24</t>
+          <t>14,29; 20,73</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>8,86; 13,95</t>
+          <t>8,71; 13,97</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,46; 9,05</t>
+          <t>3,3; 8,79</t>
         </is>
       </c>
     </row>
@@ -1024,42 +1025,42 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,97; 8,75</t>
+          <t>4,98; 8,97</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,59; 9,83</t>
+          <t>5,6; 9,7</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,58; 7,01</t>
+          <t>3,85; 7,56</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,58; 4,02</t>
+          <t>1,55; 3,89</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,97; 8,75</t>
+          <t>4,98; 8,97</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,59; 9,83</t>
+          <t>5,6; 9,7</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,58; 7,01</t>
+          <t>3,85; 7,56</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,58; 4,02</t>
+          <t>1,55; 3,89</t>
         </is>
       </c>
     </row>
@@ -1164,42 +1165,42 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,97; 5,2</t>
+          <t>2,03; 5,14</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,86; 3,05</t>
+          <t>0,86; 3,08</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,42; 4,28</t>
+          <t>1,43; 4,16</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,0; 2,56</t>
+          <t>1,02; 2,54</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,97; 5,2</t>
+          <t>2,03; 5,14</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,86; 3,05</t>
+          <t>0,86; 3,08</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,42; 4,28</t>
+          <t>1,43; 4,16</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,0; 2,56</t>
+          <t>1,02; 2,54</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1310,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,25</t>
+          <t>0,0; 1,42</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1319,7 +1320,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,58</t>
+          <t>0,0; 0,72</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1329,7 +1330,7 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,25</t>
+          <t>0,0; 1,42</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1339,7 +1340,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,58</t>
+          <t>0,0; 0,72</t>
         </is>
       </c>
     </row>
@@ -1454,12 +1455,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,36</t>
+          <t>0,0; 1,37</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,64</t>
+          <t>0,0; 0,62</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1474,12 +1475,12 @@
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,36</t>
+          <t>0,0; 1,37</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,64</t>
+          <t>0,0; 0,62</t>
         </is>
       </c>
     </row>
@@ -1584,7 +1585,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,33; 3,24</t>
+          <t>0,33; 2,89</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1594,17 +1595,17 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,35</t>
+          <t>0,0; 2,32</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,47</t>
+          <t>0,0; 0,5</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,33; 3,24</t>
+          <t>0,33; 2,89</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
@@ -1614,12 +1615,12 @@
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,35</t>
+          <t>0,0; 2,32</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,47</t>
+          <t>0,0; 0,5</t>
         </is>
       </c>
     </row>
@@ -1724,42 +1725,42 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>5,58; 7,2</t>
+          <t>5,6; 7,29</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>5,81; 7,51</t>
+          <t>5,82; 7,48</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,66; 5,03</t>
+          <t>3,7; 4,98</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>1,27; 2,21</t>
+          <t>1,3; 2,28</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>5,58; 7,2</t>
+          <t>5,6; 7,29</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>5,81; 7,51</t>
+          <t>5,82; 7,48</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>3,66; 5,03</t>
+          <t>3,7; 4,98</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>1,27; 2,21</t>
+          <t>1,3; 2,28</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido anticonceptivos en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>48716</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>66141</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>34493</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>5169</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>48716</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>66141</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>34493</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>5169</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>36398; 62187</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>52701; 84192</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>24838; 45862</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1170; 16058</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>36398; 62187</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>52701; 84192</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>24838; 45862</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>1170; 16058</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>98765</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>103025</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>62879</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>30892</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>98765</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>103025</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>62879</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>30892</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>81033; 117065</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>86780; 125887</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>49082; 78702</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>16814; 44807</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>81033; 117065</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>86780; 125887</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>49082; 78702</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>16814; 44807</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>46711</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>52288</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>35112</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>13921</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>46711</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>52288</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>35112</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>13921</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>34324; 61877</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>39637; 68635</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>25490; 49993</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>8420; 21062</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>34324; 61877</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>39637; 68635</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>25490; 49993</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>8420; 21062</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>16986</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>10582</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>16155</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>11317</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>16986</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>10582</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>16155</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>11317</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>10455; 26528</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>5281; 18933</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>9290; 26990</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>7259; 18082</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>10455; 26528</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>5281; 18933</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>9290; 26990</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>7259; 18082</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>1125</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>628</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1125</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>628</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1954</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 6327</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2198</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0; 3946</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1954</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0; 6327</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2198</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0; 3946</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>1022</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>1311</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>1022</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>1311</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1770</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1970</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5179</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0; 3760</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1770</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1970</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5179</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>0; 3760</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>3597</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>2671</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>425</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>3597</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>2671</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>425</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>1107; 9649</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2128</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>0; 9285</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2144</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>1107; 9649</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2128</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>0; 9285</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2144</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>214775</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>233162</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>152333</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>63664</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>214775</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>233162</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>152333</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>63664</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>189165; 246132</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>205939; 264675</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>131068; 176360</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>47487; 83211</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>189165; 246132</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>205939; 264675</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>131068; 176360</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>47487; 83211</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>